--- a/gc_data_by_sequence.xlsx
+++ b/gc_data_by_sequence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maydixon/Dropbox/may-o/UT AUSTIN/2016 Fall Semester/Stats/Reanalysis project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maydixon/GitHub/reanalysis_project_ada2016/reanalysis_project_ada2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,36 +35,6 @@
     <t>N.subjects</t>
   </si>
   <si>
-    <t>vocal.first.p</t>
-  </si>
-  <si>
-    <t>vocal.response.middle.p</t>
-  </si>
-  <si>
-    <t>voal.response.last.p</t>
-  </si>
-  <si>
-    <t>vocal.respose.test.p</t>
-  </si>
-  <si>
-    <t>vocal.response.post.p</t>
-  </si>
-  <si>
-    <t>visual.first.p</t>
-  </si>
-  <si>
-    <t>visual.mid.p</t>
-  </si>
-  <si>
-    <t>visual.last.p</t>
-  </si>
-  <si>
-    <t>visual.test.p</t>
-  </si>
-  <si>
-    <t>visual.post.p</t>
-  </si>
-  <si>
     <t>a-d</t>
   </si>
   <si>
@@ -111,6 +81,36 @@
   </si>
   <si>
     <t>p-f</t>
+  </si>
+  <si>
+    <t>vocal.first</t>
+  </si>
+  <si>
+    <t>vocal.mid</t>
+  </si>
+  <si>
+    <t>vocal.last</t>
+  </si>
+  <si>
+    <t>vocal.test</t>
+  </si>
+  <si>
+    <t>vocal.post</t>
+  </si>
+  <si>
+    <t>visual.first</t>
+  </si>
+  <si>
+    <t>visual.mid</t>
+  </si>
+  <si>
+    <t>visual.last</t>
+  </si>
+  <si>
+    <t>visual.test</t>
+  </si>
+  <si>
+    <t>visual.post</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L17"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,39 +441,39 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>2</v>
